--- a/Casey_Files/Final Project/Excel Solutions.xlsx
+++ b/Casey_Files/Final Project/Excel Solutions.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casey\Documents\College\Fall 2020\Fin5350\Team-4-NCW\Casey_Files\Final Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D467D01F-4258-4530-8E3A-4CC8F9800463}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA22F87-FECA-43DA-9513-942B74AF76F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{27A66A25-D093-4948-B837-8BF3839407E5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tables" sheetId="1" r:id="rId1"/>
+    <sheet name="Solutions by Hand" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
   <si>
     <t>n</t>
   </si>
@@ -90,6 +91,84 @@
   </si>
   <si>
     <t>Extra Credit</t>
+  </si>
+  <si>
+    <t>Problem 1b</t>
+  </si>
+  <si>
+    <t>Spot</t>
+  </si>
+  <si>
+    <t>Strike</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Expiry</t>
+  </si>
+  <si>
+    <t>Div</t>
+  </si>
+  <si>
+    <t>Vol</t>
+  </si>
+  <si>
+    <t>Call Price</t>
+  </si>
+  <si>
+    <t>Put Price</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Cu</t>
+  </si>
+  <si>
+    <t>Cd</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Pu</t>
+  </si>
+  <si>
+    <t>Pd</t>
+  </si>
+  <si>
+    <t>Problem 1c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pstar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">disc </t>
+  </si>
+  <si>
+    <t>Stock price tree</t>
+  </si>
+  <si>
+    <t>call tree</t>
+  </si>
+  <si>
+    <t>put tree</t>
+  </si>
+  <si>
+    <t>Problem 2a</t>
+  </si>
+  <si>
+    <t>Part 2</t>
   </si>
 </sst>
 </file>
@@ -124,15 +203,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -140,12 +225,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -155,6 +255,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -830,4 +932,748 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5268DF-E7B8-4272-A16A-43798DB3D120}">
+  <dimension ref="A1:K78"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>105</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="6">
+        <f>(F5*C2)+F6</f>
+        <v>11.350062186067703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>0.08</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="6">
+        <f>(G5*C2)+G6</f>
+        <v>8.2772785566644487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5">
+        <f>(C11-0)/(C2*(C8-C9))</f>
+        <v>0.62614383734657897</v>
+      </c>
+      <c r="G5">
+        <f>(0-C14)/(C2*(C8-C9))</f>
+        <v>-0.3738561626534212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6">
+        <f>EXP(-0.08)*((C8*C12)-(C9*C11))/(C8-C9)</f>
+        <v>-51.264321548590196</v>
+      </c>
+      <c r="G6">
+        <f>EXP(-0.08)*((C8*C14)-(C9*C13))/(C8-C9)</f>
+        <v>45.662894822006571</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <f>EXP((C4-C6)*C10+C7*SQRT(C10))</f>
+        <v>1.3231298123374369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <f>EXP((C4-C6)*C10-C7*SQRT(C10))</f>
+        <v>0.88692043671715748</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11">
+        <f>MAX((C8*C2)-C3,0)</f>
+        <v>27.312981233743699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <f>MAX((C9*C2)-C3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <f>MAX(C3-(C2*C8),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14">
+        <f>MAX(C3-(C2*C9),0)</f>
+        <v>16.307956328284249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>105</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="6">
+        <f>C43</f>
+        <v>10.044685209190392</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>0.08</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="6">
+        <f>H43</f>
+        <v>6.971901579787156</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22">
+        <f>EXP((C18-C20)*C24+C21*SQRT(C24))</f>
+        <v>1.1527342401707321</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23">
+        <f>EXP((C18-C20)*C24-C21*SQRT(C24))</f>
+        <v>0.91502546163410481</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25">
+        <f>MAX((C22*C16)-C17,0)</f>
+        <v>10.273424017073211</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26">
+        <f>MAX((C23*C16)-C17,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27">
+        <f>MAX(C17-(C16*C22),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28">
+        <f>MAX(C17-(C16*C23),0)</f>
+        <v>13.497453836589514</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29">
+        <f>(EXP((C18-C20)*C24)-C23)/(C22-C23)</f>
+        <v>0.47116451884640997</v>
+      </c>
+      <c r="D29">
+        <f>EXP(-C18*C24)*(C29*C25+(1-C29)*C26)</f>
+        <v>4.7130994671929534</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30">
+        <f>EXP(-C18*C24)</f>
+        <v>0.973685749353145</v>
+      </c>
+      <c r="F30">
+        <f>E31*C22</f>
+        <v>153.17489107578726</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <f>D32*C22</f>
+        <v>132.87962284619951</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <f>C33*C22</f>
+        <v>115.27342401707321</v>
+      </c>
+      <c r="F32">
+        <f>E31*C23</f>
+        <v>121.58823823660944</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="5">
+        <v>100</v>
+      </c>
+      <c r="E33">
+        <f>D32*C23</f>
+        <v>105.47811802536631</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <f>C33*C23</f>
+        <v>91.502546163410486</v>
+      </c>
+      <c r="F34">
+        <f>E35*C22</f>
+        <v>96.515163638457423</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <f>D34*C23</f>
+        <v>83.72715954387067</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <f>E35*C23</f>
+        <v>76.612482812942602</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <f>MAX((F30-$C$17),0)</f>
+        <v>48.174891075787258</v>
+      </c>
+      <c r="H40" t="s">
+        <v>42</v>
+      </c>
+      <c r="K40">
+        <f>MAX(($C$17-F30),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <f>C30*(C29*F40+(1-C29)*F42)</f>
+        <v>30.642619164119282</v>
+      </c>
+      <c r="J41">
+        <f>H30*(H29*K40+(1-H29)*K42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D42">
+        <f>C30*(C29*E41+(1-C29)*E43)</f>
+        <v>17.976398361000069</v>
+      </c>
+      <c r="F42">
+        <f>MAX((F32-$C$17),0)</f>
+        <v>16.588238236609442</v>
+      </c>
+      <c r="I42">
+        <f>C30*(C29*J41+(1-C29)*J43)</f>
+        <v>2.24968788573339</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ref="K42:K46" si="0">MAX(($C$17-F32),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <f>C30*(C29*D42+(1-C29)*D44)</f>
+        <v>10.044685209190392</v>
+      </c>
+      <c r="E43">
+        <f>C30*(C29*F42+(1-C29)*F44)</f>
+        <v>7.6101226489536993</v>
+      </c>
+      <c r="H43">
+        <f>C30*(C29*I42+(1-C29)*I44)</f>
+        <v>6.971901579787156</v>
+      </c>
+      <c r="J43">
+        <f>C30*(C29*K42+(1-C29)*K44)</f>
+        <v>4.3690083056676041</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D44">
+        <f>C30*(C29*E43+(1-C29)*E45)</f>
+        <v>3.491266878739705</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ref="F44:F46" si="1">MAX((F34-$C$17),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f>C30*(C29*J43+(1-C29)*J45)</f>
+        <v>11.535434257135755</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="0"/>
+        <v>8.4848363615425768</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <f>C30*(C29*K44+(1-C29)*K46)</f>
+        <v>18.509844138209559</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="0"/>
+        <v>28.387517187057398</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49">
+        <v>95</v>
+      </c>
+      <c r="E49" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="6">
+        <v>18.282552207370557</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50">
+        <v>0.08</v>
+      </c>
+      <c r="E50" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50" s="6">
+        <v>5.9786051141009704</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54">
+        <v>1.2212461201543867</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55">
+        <v>0.86369255373382114</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57">
+        <v>27.124612015438672</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60">
+        <v>8.6307446266178829</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61">
+        <v>0.45680665920961433</v>
+      </c>
+      <c r="D61">
+        <v>12.064651322246599</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62">
+        <v>0.973685749353145</v>
+      </c>
+      <c r="F62">
+        <v>182.14178609528693</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E63">
+        <v>149.14420859921427</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D64">
+        <v>122.12461201543867</v>
+      </c>
+      <c r="F64">
+        <v>128.81474239966511</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65">
+        <v>100</v>
+      </c>
+      <c r="E65">
+        <v>105.47811802536633</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D66">
+        <v>86.369255373382117</v>
+      </c>
+      <c r="F66">
+        <v>91.100665120366031</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E67">
+        <v>74.596482737524951</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F68">
+        <v>64.428426675133835</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F72">
+        <v>87.141786095286932</v>
+      </c>
+      <c r="H72" t="s">
+        <v>42</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E73">
+        <v>56.644062410665491</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D74">
+        <v>33.149317532258941</v>
+      </c>
+      <c r="F74">
+        <v>33.814742399665107</v>
+      </c>
+      <c r="I74">
+        <v>1.0907796736928534</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75">
+        <v>18.282552207370557</v>
+      </c>
+      <c r="E75">
+        <v>15.040328553689362</v>
+      </c>
+      <c r="H75">
+        <v>5.9786051141009704</v>
+      </c>
+      <c r="J75">
+        <v>2.0623567168718178</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D76">
+        <v>6.6897295957269769</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>10.386548379217444</v>
+      </c>
+      <c r="K76">
+        <v>3.8993348796339689</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>17.903663451023824</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>30.571573324866165</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>